--- a/AWX42E_0328/AWX42E_2gyk.xlsx
+++ b/AWX42E_0328/AWX42E_2gyk.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BVGit\AWX42EInfAlk\AWX42E_0328\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F3181D-88D5-4AE7-AB9C-2A5598EE7DDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1984FB2A-CCBE-4B86-9104-0163F20D3F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{13502952-41D7-4FF8-BE93-CBA836BBEA66}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Munka1!$A$7:$A$15</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Munka1!$H$7:$H$15</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Munka1!$A$7:$A$15</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Munka1!$H$7:$H$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -191,14 +197,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -206,6 +206,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -213,6 +220,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -222,6 +235,2950 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1800" b="1"/>
+              <a:t>ZH</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1800" b="1" baseline="0"/>
+              <a:t> tanulmányi eredmények</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-965D-4C10-80D1-4FEAAE0277FF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$7:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Balogh Orsolya</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Benedek Ágnes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bodnár János</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lovász Krisztina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Faragó Sándor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fogarasi Éva</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kovács József</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Magyar Tibor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Orosz Emese</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$H$7:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.54285714285714282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45714285714285713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-965D-4C10-80D1-4FEAAE0277FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1800" b="1"/>
+              <a:t>ZH</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1800" b="1" baseline="0"/>
+              <a:t> tanulmányi eredmények</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27775678040244972"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1915875438383229E-2"/>
+          <c:y val="0.19798032540362162"/>
+          <c:w val="0.90694444444444444"/>
+          <c:h val="0.48375838436862056"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="26"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1EEF-4211-B15C-79D03CCDF2E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$7:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Balogh Orsolya</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Benedek Ágnes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bodnár János</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lovász Krisztina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Faragó Sándor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fogarasi Éva</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kovács József</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Magyar Tibor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Orosz Emese</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$H$7:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.54285714285714282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45714285714285713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EEF-4211-B15C-79D03CCDF2E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="40000"/>
+        <a:lumOff val="60000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>ZH tanulmányi eredmények</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>ZH tanulmányi eredmények</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{7C09D2FE-84D0-4091-99F4-707F71D8DF96}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF7C80"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1050" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU" sz="1050" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFCC"/>
+    </a:solidFill>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagram 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8EC294-ACE9-4127-A562-C7E456AA65B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6987540" y="525780"/>
+              <a:ext cx="4312920" cy="2651760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="hu-HU" sz="1100"/>
+                <a:t>Ez a diagram nem érhető el az Excel ezen verziójában.
+Ha szerkeszti ezt az alakzatot, vagy más formátumba menti a munkafüzetet, azzal végleg tönkreteszi a diagramot.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FB2121-8A45-42B3-B421-067AF2C801C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D4EE41-3720-48F4-9E2D-14E5D40A0AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3D3E74-09E4-4CEA-B639-F9426B8C27C4}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -533,386 +3490,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>7</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>8</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>9</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <f>SUM(B3:F3)</f>
         <v>35</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <f>G3/35</f>
         <v>1</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="7">
+        <f>MIN(G7:G15)</f>
+        <v>12</v>
+      </c>
+      <c r="J3" s="7">
+        <f>MAX(G7:G15)</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="10">
+        <f>MIN(H7:H15)</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="J4" s="10">
+        <f>MAX(H7:H15)</f>
+        <v>0.94285714285714284</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="9">
-        <f t="shared" ref="G4:G15" si="0">SUM(B7:F7)</f>
+      <c r="G7" s="7">
+        <f t="shared" ref="G7:G15" si="0">SUM(B7:F7)</f>
         <v>19</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" ref="H4:H15" si="1">G7/35</f>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7:H15" si="1">G7/35</f>
         <v>0.54285714285714282</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>9</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>0.94285714285714284</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>8</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>0.62857142857142856</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>7</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>9</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>0.88571428571428568</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>7</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>0.68571428571428572</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>0.48571428571428571</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>0.34285714285714286</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>6</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>4</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>6</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>4</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>0.45714285714285713</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -920,5 +3889,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>